--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Current</t>
   </si>
@@ -48,28 +48,70 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://127.0.0.1:2020/intro</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:2020/a</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:2020/b</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:2020/x</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:2020/y</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:2020/z</t>
-  </si>
-  <si>
     <t>A, B</t>
   </si>
   <si>
     <t>X, Y, Z</t>
+  </si>
+  <si>
+    <t>chunu.mp4</t>
+  </si>
+  <si>
+    <t>A10.mp4</t>
+  </si>
+  <si>
+    <t>B20.mp4</t>
+  </si>
+  <si>
+    <t>E1.mp4</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C10.mp4</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>TY.mp4</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>E2.mp4</t>
+  </si>
+  <si>
+    <t>E3.mp4</t>
+  </si>
+  <si>
+    <t>E4.mp4</t>
+  </si>
+  <si>
+    <t>E5.mp4</t>
+  </si>
+  <si>
+    <t>E6.mp4</t>
+  </si>
+  <si>
+    <t>A, P, Q</t>
+  </si>
+  <si>
+    <t>P, Q, R, S</t>
+  </si>
+  <si>
+    <t>A, X</t>
   </si>
 </sst>
 </file>
@@ -128,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,6 +193,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -159,7 +210,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -167,6 +218,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -462,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -487,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,20 +556,76 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -525,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -557,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -565,47 +674,99 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:2020/intro"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://127.0.0.1:2020/a"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://127.0.0.1:2020/b"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://127.0.0.1:2020/x"/>
+    <hyperlink ref="B12" r:id="rId5" display="http://127.0.0.1:2020/z"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://127.0.0.1:2020/x"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://127.0.0.1:2020/x"/>
+    <hyperlink ref="B11" r:id="rId8" display="http://127.0.0.1:2020/x"/>
+    <hyperlink ref="B9" r:id="rId9" display="http://127.0.0.1:2020/x"/>
+    <hyperlink ref="B10" r:id="rId10" display="http://127.0.0.1:2020/x"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Current</t>
   </si>
@@ -54,30 +54,12 @@
     <t>X, Y, Z</t>
   </si>
   <si>
-    <t>chunu.mp4</t>
-  </si>
-  <si>
-    <t>A10.mp4</t>
-  </si>
-  <si>
-    <t>B20.mp4</t>
-  </si>
-  <si>
-    <t>E1.mp4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>C10.mp4</t>
-  </si>
-  <si>
     <t>TY</t>
   </si>
   <si>
-    <t>TY.mp4</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -90,21 +72,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>E2.mp4</t>
-  </si>
-  <si>
-    <t>E3.mp4</t>
-  </si>
-  <si>
-    <t>E4.mp4</t>
-  </si>
-  <si>
-    <t>E5.mp4</t>
-  </si>
-  <si>
-    <t>E6.mp4</t>
-  </si>
-  <si>
     <t>A, P, Q</t>
   </si>
   <si>
@@ -112,6 +79,42 @@
   </si>
   <si>
     <t>A, X</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/start</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/a</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/b</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/c</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/x</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/y</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/z</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/p</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/q</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/r</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/s</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/ty</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -220,6 +223,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -517,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,39 +584,39 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -634,18 +638,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -653,100 +658,101 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:2">
@@ -754,19 +760,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://127.0.0.1:2020/intro"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://127.0.0.1:2020/a"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://127.0.0.1:2020/b"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://127.0.0.1:2020/x"/>
-    <hyperlink ref="B12" r:id="rId5" display="http://127.0.0.1:2020/z"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://127.0.0.1:2020/x"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://127.0.0.1:2020/x"/>
-    <hyperlink ref="B11" r:id="rId8" display="http://127.0.0.1:2020/x"/>
-    <hyperlink ref="B9" r:id="rId9" display="http://127.0.0.1:2020/x"/>
-    <hyperlink ref="B10" r:id="rId10" display="http://127.0.0.1:2020/x"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://pixie.jubi.ai/videopoc/start"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://pixie.jubi.ai/videopoc/a"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://pixie.jubi.ai/videopoc/b"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://pixie.jubi.ai/videopoc/c"/>
+    <hyperlink ref="B7" r:id="rId5" display="http://pixie.jubi.ai/videopoc/y"/>
+    <hyperlink ref="B9" r:id="rId6" display="http://pixie.jubi.ai/videopoc/p"/>
+    <hyperlink ref="B11" r:id="rId7" display="http://pixie.jubi.ai/videopoc/r"/>
+    <hyperlink ref="B13" r:id="rId8" display="http://pixie.jubi.ai/videopoc/ty"/>
+    <hyperlink ref="B6" r:id="rId9" display="http://pixie.jubi.ai/videopoc/x"/>
+    <hyperlink ref="B8" r:id="rId10" display="http://pixie.jubi.ai/videopoc/z"/>
+    <hyperlink ref="B10" r:id="rId11" display="http://pixie.jubi.ai/videopoc/q"/>
+    <hyperlink ref="B12" r:id="rId12" display="http://pixie.jubi.ai/videopoc/s"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Current</t>
   </si>
@@ -57,9 +57,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>TY</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -114,7 +111,16 @@
     <t>https://pixie.jubi.ai/videopoc/s</t>
   </si>
   <si>
-    <t>https://pixie.jubi.ai/videopoc/ty</t>
+    <t>end</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/end</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>replay, EXIT</t>
   </si>
 </sst>
 </file>
@@ -519,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -568,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -576,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -584,44 +590,48 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
@@ -630,6 +640,10 @@
     <row r="14" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -641,7 +655,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -663,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -671,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -679,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -687,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -696,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -704,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -712,47 +726,55 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:2">
@@ -767,14 +789,15 @@
     <hyperlink ref="B7" r:id="rId5" display="http://pixie.jubi.ai/videopoc/y"/>
     <hyperlink ref="B9" r:id="rId6" display="http://pixie.jubi.ai/videopoc/p"/>
     <hyperlink ref="B11" r:id="rId7" display="http://pixie.jubi.ai/videopoc/r"/>
-    <hyperlink ref="B13" r:id="rId8" display="http://pixie.jubi.ai/videopoc/ty"/>
+    <hyperlink ref="B13" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9" display="http://pixie.jubi.ai/videopoc/x"/>
     <hyperlink ref="B8" r:id="rId10" display="http://pixie.jubi.ai/videopoc/z"/>
     <hyperlink ref="B10" r:id="rId11" display="http://pixie.jubi.ai/videopoc/q"/>
     <hyperlink ref="B12" r:id="rId12" display="http://pixie.jubi.ai/videopoc/s"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://pixie.jubi.ai/videopoc/start"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Current</t>
   </si>
@@ -54,9 +54,6 @@
     <t>X, Y, Z</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -102,25 +99,31 @@
     <t>https://pixie.jubi.ai/videopoc/p</t>
   </si>
   <si>
-    <t>https://pixie.jubi.ai/videopoc/q</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/r</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/s</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
-    <t>https://pixie.jubi.ai/videopoc/end</t>
-  </si>
-  <si>
-    <t>replay</t>
-  </si>
-  <si>
     <t>replay, EXIT</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>dependent</t>
+  </si>
+  <si>
+    <t>expense</t>
+  </si>
+  <si>
+    <t>salary</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -574,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -582,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -590,47 +593,47 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -655,11 +658,12 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
   </cols>
@@ -677,105 +681,85 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="3"/>
@@ -788,16 +772,11 @@
     <hyperlink ref="B5" r:id="rId4" display="http://pixie.jubi.ai/videopoc/c"/>
     <hyperlink ref="B7" r:id="rId5" display="http://pixie.jubi.ai/videopoc/y"/>
     <hyperlink ref="B9" r:id="rId6" display="http://pixie.jubi.ai/videopoc/p"/>
-    <hyperlink ref="B11" r:id="rId7" display="http://pixie.jubi.ai/videopoc/r"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9" display="http://pixie.jubi.ai/videopoc/x"/>
-    <hyperlink ref="B8" r:id="rId10" display="http://pixie.jubi.ai/videopoc/z"/>
-    <hyperlink ref="B10" r:id="rId11" display="http://pixie.jubi.ai/videopoc/q"/>
-    <hyperlink ref="B12" r:id="rId12" display="http://pixie.jubi.ai/videopoc/s"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://pixie.jubi.ai/videopoc/start"/>
+    <hyperlink ref="B6" r:id="rId7" display="http://pixie.jubi.ai/videopoc/x"/>
+    <hyperlink ref="B8" r:id="rId8" display="http://pixie.jubi.ai/videopoc/z"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Current</t>
   </si>
@@ -27,84 +27,12 @@
     <t>start</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>Nodes</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>A, B</t>
-  </si>
-  <si>
-    <t>X, Y, Z</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A, P, Q</t>
-  </si>
-  <si>
-    <t>P, Q, R, S</t>
-  </si>
-  <si>
-    <t>A, X</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/start</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/a</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/b</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/c</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/x</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/y</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/z</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/p</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>replay, EXIT</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -124,6 +52,30 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/start.mp4</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/name.mp4</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/age.mp4</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/gender.mp4</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/job.mp4</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/dependent.mp4</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/expense.mp4</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/salary.mp4</t>
   </si>
 </sst>
 </file>
@@ -530,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,88 +505,68 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
@@ -657,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,10 +602,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -681,64 +613,64 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -766,14 +698,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://pixie.jubi.ai/videopoc/start"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://pixie.jubi.ai/videopoc/a"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://pixie.jubi.ai/videopoc/b"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://pixie.jubi.ai/videopoc/c"/>
-    <hyperlink ref="B7" r:id="rId5" display="http://pixie.jubi.ai/videopoc/y"/>
-    <hyperlink ref="B9" r:id="rId6" display="http://pixie.jubi.ai/videopoc/p"/>
-    <hyperlink ref="B6" r:id="rId7" display="http://pixie.jubi.ai/videopoc/x"/>
-    <hyperlink ref="B8" r:id="rId8" display="http://pixie.jubi.ai/videopoc/z"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Current</t>
   </si>
@@ -33,9 +33,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
   </si>
   <si>
     <t>salary</t>
-  </si>
-  <si>
-    <t>https://pixie.jubi.ai/videopoc/start.mp4</t>
   </si>
   <si>
     <t>https://pixie.jubi.ai/videopoc/name.mp4</t>
@@ -480,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,16 +531,12 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1"/>
@@ -565,8 +555,8 @@
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5"/>
@@ -575,10 +565,6 @@
     <row r="14" spans="1:2">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,10 +573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -621,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -629,24 +615,24 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -654,7 +640,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -662,16 +648,12 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
@@ -689,26 +671,21 @@
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3"/>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Current</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>https://pixie.jubi.ai/videopoc/salary.mp4</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>male, female</t>
+  </si>
+  <si>
+    <t>salaried , business</t>
+  </si>
+  <si>
+    <t>0 , 1 , 2 , more</t>
   </si>
 </sst>
 </file>
@@ -474,95 +489,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
     </row>
@@ -575,14 +615,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Current</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>0 , 1 , 2 , more</t>
+  </si>
+  <si>
+    <t>&gt;2 Lakhs, 2-5 Lakhs, 5+ Lakhs</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,9 +572,13 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Current</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>&gt;2 Lakhs, 2-5 Lakhs, 5+ Lakhs</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,7 +578,9 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
@@ -622,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,7 +704,9 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5">

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Current</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>male,female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>next</t>
   </si>
 </sst>
 </file>
@@ -495,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -554,46 +566,58 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
@@ -606,17 +630,27 @@
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -627,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -710,12 +744,20 @@
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
@@ -737,9 +779,11 @@
     <hyperlink ref="B5" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B2" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Current</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>next</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>https://pixie.jubi.ai/videopoc/end.mp4</t>
   </si>
 </sst>
 </file>
@@ -509,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,9 +626,15 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
@@ -661,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +753,9 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
@@ -781,9 +795,10 @@
     <hyperlink ref="B2" r:id="rId7"/>
     <hyperlink ref="B10" r:id="rId8"/>
     <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>replay</t>
   </si>
   <si>
-    <t>https://pixie.jubi.ai/videopoc/end.mp4</t>
+    <t>https://pixie.jubi.ai/videopoc/end.gif</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nextMap" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <t>replay</t>
   </si>
   <si>
-    <t>https://pixie.jubi.ai/videopoc/end.mp4</t>
+    <t>https://pixie.jubi.ai/videopoc/y2mate.com - maroon_5_girls_like_you_ft_cardi_b_aJOTlE1K90k_720p.mp4</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -108,7 +108,7 @@
     <t>replay</t>
   </si>
   <si>
-    <t>https://pixie.jubi.ai/videopoc/y2mate.com - maroon_5_girls_like_you_ft_cardi_b_aJOTlE1K90k_720p.mp4</t>
+    <t>https://pixie.jubi.ai/videopoc/song.mp4</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -108,7 +108,7 @@
     <t>replay</t>
   </si>
   <si>
-    <t>https://pixie.jubi.ai/videopoc/song.mp4</t>
+    <t>https://pixie.jubi.ai/videopoc/end.mp4</t>
   </si>
 </sst>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -671,20 +671,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -692,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -700,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -708,16 +707,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -725,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -733,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -741,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -749,7 +748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -757,7 +756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -765,7 +764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -773,11 +772,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
     </row>
